--- a/BackTest/2019-10-26 BackTest DAC.xlsx
+++ b/BackTest/2019-10-26 BackTest DAC.xlsx
@@ -451,17 +451,13 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>3.336000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>3.322000000000004</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>3.320000000000004</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>3.326000000000004</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>3.332000000000004</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>3.324000000000004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>3.320000000000005</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>3.320000000000005</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>3.318000000000005</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>3.324000000000005</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>3.330000000000005</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>3.326000000000004</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>3.322000000000004</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>3.316000000000004</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>3.316000000000004</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>3.322000000000004</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>3.328000000000004</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>3.326000000000004</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2026,14 @@
         <v>3.326000000000004</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2061,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2096,14 @@
         <v>3.320000000000005</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2511,22 +2131,14 @@
         <v>3.316000000000005</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2166,14 @@
         <v>3.322000000000005</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2201,14 @@
         <v>3.326000000000005</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2236,14 @@
         <v>3.326000000000006</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2271,14 @@
         <v>3.330000000000006</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2306,14 @@
         <v>3.334000000000006</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2769,22 +2341,14 @@
         <v>3.330000000000006</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2376,14 @@
         <v>3.326000000000006</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2411,14 @@
         <v>3.324000000000007</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2446,14 @@
         <v>3.320000000000006</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2941,22 +2481,14 @@
         <v>3.316000000000006</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2516,14 @@
         <v>3.314000000000006</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3027,22 +2551,14 @@
         <v>3.320000000000006</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2586,14 @@
         <v>3.324000000000006</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +2621,14 @@
         <v>3.328000000000007</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +2656,14 @@
         <v>3.328000000000007</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +2691,14 @@
         <v>3.332000000000007</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +2726,14 @@
         <v>3.330000000000008</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +2761,14 @@
         <v>3.330000000000008</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +2796,14 @@
         <v>3.332000000000008</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3371,22 +2831,14 @@
         <v>3.336000000000008</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +2866,14 @@
         <v>3.336000000000008</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3457,22 +2901,14 @@
         <v>3.336000000000008</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +2936,14 @@
         <v>3.336000000000008</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +2971,14 @@
         <v>3.336000000000008</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3006,14 @@
         <v>3.336000000000008</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3629,22 +3041,14 @@
         <v>3.338000000000008</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3076,14 @@
         <v>3.340000000000008</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3715,22 +3111,14 @@
         <v>3.340000000000008</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K78" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3146,14 @@
         <v>3.340000000000008</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K79" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3181,14 @@
         <v>3.350000000000008</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3216,14 @@
         <v>3.374000000000008</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3887,22 +3251,14 @@
         <v>3.392000000000008</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3974,17 +3324,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4056,19 +3394,13 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>1.018880597014926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4097,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4132,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -19424,13 +18756,17 @@
         <v>3.356000000000007</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K525" t="n">
+        <v>3.37</v>
+      </c>
       <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
@@ -19465,8 +18801,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19494,14 +18836,22 @@
         <v>3.362000000000007</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K527" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19535,8 +18885,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19570,8 +18926,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19605,8 +18967,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19640,8 +19008,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19675,8 +19049,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19710,8 +19090,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19745,8 +19131,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19780,8 +19172,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19809,14 +19207,22 @@
         <v>3.344000000000007</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K536" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19844,14 +19250,22 @@
         <v>3.346000000000007</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K537" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19879,14 +19293,22 @@
         <v>3.346000000000007</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K538" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19914,14 +19336,22 @@
         <v>3.350000000000007</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K539" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19949,14 +19379,22 @@
         <v>3.352000000000007</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K540" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19984,14 +19422,22 @@
         <v>3.356000000000007</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K541" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20025,8 +19471,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20054,14 +19506,22 @@
         <v>3.364000000000007</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K543" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20095,8 +19555,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20130,8 +19596,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20165,8 +19637,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20200,8 +19678,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20235,8 +19719,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20270,8 +19760,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20305,8 +19801,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20340,8 +19842,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20375,8 +19883,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20410,8 +19924,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20445,8 +19965,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20480,8 +20006,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20515,8 +20047,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20550,8 +20088,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20585,8 +20129,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20620,8 +20170,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20655,8 +20211,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20690,8 +20252,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20725,8 +20293,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20760,8 +20334,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20795,8 +20375,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20830,8 +20416,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20865,8 +20457,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20900,8 +20498,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20935,8 +20539,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20970,8 +20580,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21005,8 +20621,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21040,8 +20662,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21075,8 +20703,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21110,8 +20744,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21145,8 +20785,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21180,8 +20826,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21215,8 +20867,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21250,8 +20908,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21285,8 +20949,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21320,8 +20990,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21355,8 +21031,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21390,8 +21072,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21425,8 +21113,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21460,8 +21154,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21495,8 +21195,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21530,8 +21236,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21565,8 +21277,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21600,8 +21318,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21635,8 +21359,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21670,8 +21400,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21705,8 +21441,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21740,8 +21482,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21769,18 +21517,20 @@
         <v>3.346000000000006</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L592" t="inlineStr"/>
+        <v>3.37</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21808,20 +21558,18 @@
         <v>3.352000000000006</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M593" t="n">
@@ -21851,16 +21599,14 @@
         <v>3.356000000000006</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>3.38</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -21894,16 +21640,14 @@
         <v>3.364000000000006</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>3.38</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -21944,7 +21688,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -21985,7 +21729,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -22026,7 +21770,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -22067,7 +21811,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -22108,7 +21852,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -22149,7 +21893,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -22190,7 +21934,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -22231,7 +21975,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -22272,7 +22016,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -22313,7 +22057,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -22354,7 +22098,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -22395,7 +22139,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -22436,7 +22180,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -22477,7 +22221,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -22518,7 +22262,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -22559,7 +22303,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -22600,7 +22344,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -22641,7 +22385,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -22682,7 +22426,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -22723,7 +22467,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -22764,7 +22508,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -22805,7 +22549,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -22846,7 +22590,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -22887,7 +22631,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -22928,7 +22672,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -22969,7 +22713,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -23010,7 +22754,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -23051,7 +22795,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -23092,7 +22836,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -23133,7 +22877,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -23174,7 +22918,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -23215,7 +22959,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -23256,7 +23000,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -23297,7 +23041,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -23338,7 +23082,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -23379,7 +23123,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -23420,7 +23164,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -23461,7 +23205,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -23502,7 +23246,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -23543,7 +23287,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -23584,7 +23328,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -23625,7 +23369,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -23666,7 +23410,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -23707,7 +23451,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -23748,7 +23492,7 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -23789,7 +23533,7 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -23830,7 +23574,7 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -23871,7 +23615,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -23912,7 +23656,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -23953,7 +23697,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -23994,7 +23738,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -24035,7 +23779,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -24076,7 +23820,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -24117,7 +23861,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -24158,7 +23902,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -24199,7 +23943,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
@@ -24240,7 +23984,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
@@ -24281,7 +24025,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
@@ -24322,7 +24066,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L654" t="inlineStr">
         <is>
@@ -24363,7 +24107,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
@@ -24404,7 +24148,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>
@@ -24445,7 +24189,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L657" t="inlineStr">
         <is>
@@ -24486,7 +24230,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L658" t="inlineStr">
         <is>
@@ -24527,7 +24271,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L659" t="inlineStr">
         <is>
@@ -24568,7 +24312,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L660" t="inlineStr">
         <is>
@@ -24609,7 +24353,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L661" t="inlineStr">
         <is>
@@ -24650,7 +24394,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L662" t="inlineStr">
         <is>
@@ -24691,7 +24435,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L663" t="inlineStr">
         <is>
@@ -24732,7 +24476,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L664" t="inlineStr">
         <is>
@@ -24773,7 +24517,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L665" t="inlineStr">
         <is>
@@ -24814,7 +24558,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L666" t="inlineStr">
         <is>
@@ -24855,7 +24599,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L667" t="inlineStr">
         <is>
@@ -24896,7 +24640,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L668" t="inlineStr">
         <is>
@@ -24937,7 +24681,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L669" t="inlineStr">
         <is>
@@ -24978,7 +24722,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L670" t="inlineStr">
         <is>
@@ -25019,7 +24763,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L671" t="inlineStr">
         <is>
@@ -25060,7 +24804,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L672" t="inlineStr">
         <is>
@@ -25101,7 +24845,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L673" t="inlineStr">
         <is>
@@ -25142,7 +24886,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L674" t="inlineStr">
         <is>
@@ -25183,7 +24927,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L675" t="inlineStr">
         <is>
@@ -25224,7 +24968,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L676" t="inlineStr">
         <is>
@@ -25265,7 +25009,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L677" t="inlineStr">
         <is>
@@ -25306,7 +25050,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L678" t="inlineStr">
         <is>
@@ -25347,7 +25091,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L679" t="inlineStr">
         <is>
@@ -25388,7 +25132,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L680" t="inlineStr">
         <is>
@@ -25429,7 +25173,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L681" t="inlineStr">
         <is>
@@ -25470,7 +25214,7 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L682" t="inlineStr">
         <is>
@@ -25511,7 +25255,7 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L683" t="inlineStr">
         <is>
@@ -25552,7 +25296,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L684" t="inlineStr">
         <is>
@@ -25593,7 +25337,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L685" t="inlineStr">
         <is>
@@ -25634,7 +25378,7 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L686" t="inlineStr">
         <is>
@@ -25675,7 +25419,7 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L687" t="inlineStr">
         <is>
@@ -25716,7 +25460,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L688" t="inlineStr">
         <is>
@@ -25757,7 +25501,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L689" t="inlineStr">
         <is>
@@ -25798,7 +25542,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L690" t="inlineStr">
         <is>
@@ -25839,7 +25583,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L691" t="inlineStr">
         <is>
@@ -25880,7 +25624,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L692" t="inlineStr">
         <is>
@@ -25921,7 +25665,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L693" t="inlineStr">
         <is>
@@ -25962,7 +25706,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L694" t="inlineStr">
         <is>
@@ -26003,7 +25747,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L695" t="inlineStr">
         <is>
@@ -26044,7 +25788,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L696" t="inlineStr">
         <is>
@@ -26085,7 +25829,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L697" t="inlineStr">
         <is>
@@ -26126,7 +25870,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L698" t="inlineStr">
         <is>
@@ -26167,7 +25911,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L699" t="inlineStr">
         <is>
@@ -26208,7 +25952,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L700" t="inlineStr">
         <is>
@@ -26249,7 +25993,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L701" t="inlineStr">
         <is>
@@ -26290,7 +26034,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L702" t="inlineStr">
         <is>
@@ -26331,7 +26075,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L703" t="inlineStr">
         <is>
@@ -26372,7 +26116,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L704" t="inlineStr">
         <is>
@@ -26413,7 +26157,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L705" t="inlineStr">
         <is>
@@ -26454,7 +26198,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L706" t="inlineStr">
         <is>
@@ -26495,7 +26239,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L707" t="inlineStr">
         <is>
@@ -26536,7 +26280,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L708" t="inlineStr">
         <is>
@@ -26577,7 +26321,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L709" t="inlineStr">
         <is>
@@ -26618,7 +26362,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L710" t="inlineStr">
         <is>
@@ -26659,7 +26403,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L711" t="inlineStr">
         <is>
@@ -26700,7 +26444,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L712" t="inlineStr">
         <is>
@@ -26741,7 +26485,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L713" t="inlineStr">
         <is>
@@ -26782,7 +26526,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L714" t="inlineStr">
         <is>
@@ -26823,7 +26567,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L715" t="inlineStr">
         <is>
@@ -26864,7 +26608,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L716" t="inlineStr">
         <is>
@@ -26905,7 +26649,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L717" t="inlineStr">
         <is>
@@ -26946,7 +26690,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L718" t="inlineStr">
         <is>
@@ -26987,7 +26731,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L719" t="inlineStr">
         <is>
@@ -27028,7 +26772,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L720" t="inlineStr">
         <is>
@@ -27069,7 +26813,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L721" t="inlineStr">
         <is>
@@ -27110,7 +26854,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L722" t="inlineStr">
         <is>
@@ -27151,7 +26895,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L723" t="inlineStr">
         <is>
@@ -27192,7 +26936,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L724" t="inlineStr">
         <is>
@@ -27233,7 +26977,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L725" t="inlineStr">
         <is>
@@ -27274,7 +27018,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L726" t="inlineStr">
         <is>
@@ -27315,7 +27059,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L727" t="inlineStr">
         <is>
@@ -27356,7 +27100,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L728" t="inlineStr">
         <is>
@@ -27397,7 +27141,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L729" t="inlineStr">
         <is>
@@ -27438,7 +27182,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L730" t="inlineStr">
         <is>
@@ -27479,7 +27223,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L731" t="inlineStr">
         <is>
@@ -27520,7 +27264,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L732" t="inlineStr">
         <is>
@@ -27561,7 +27305,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L733" t="inlineStr">
         <is>
@@ -27602,7 +27346,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L734" t="inlineStr">
         <is>
@@ -27643,7 +27387,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L735" t="inlineStr">
         <is>
@@ -27684,7 +27428,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L736" t="inlineStr">
         <is>
@@ -27725,7 +27469,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L737" t="inlineStr">
         <is>
@@ -27766,7 +27510,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L738" t="inlineStr">
         <is>
@@ -27807,7 +27551,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L739" t="inlineStr">
         <is>
@@ -27848,7 +27592,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L740" t="inlineStr">
         <is>
@@ -27889,7 +27633,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L741" t="inlineStr">
         <is>
@@ -27930,7 +27674,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L742" t="inlineStr">
         <is>
@@ -27971,7 +27715,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L743" t="inlineStr">
         <is>
@@ -28012,7 +27756,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L744" t="inlineStr">
         <is>
@@ -28053,7 +27797,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L745" t="inlineStr">
         <is>
@@ -28094,7 +27838,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L746" t="inlineStr">
         <is>
@@ -28135,7 +27879,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L747" t="inlineStr">
         <is>
@@ -28176,7 +27920,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L748" t="inlineStr">
         <is>
@@ -28217,7 +27961,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L749" t="inlineStr">
         <is>
@@ -28258,7 +28002,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L750" t="inlineStr">
         <is>
@@ -28299,7 +28043,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L751" t="inlineStr">
         <is>
@@ -28340,7 +28084,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L752" t="inlineStr">
         <is>
@@ -28381,7 +28125,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L753" t="inlineStr">
         <is>
@@ -28422,7 +28166,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L754" t="inlineStr">
         <is>
@@ -28463,7 +28207,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L755" t="inlineStr">
         <is>
@@ -28504,7 +28248,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L756" t="inlineStr">
         <is>
@@ -28545,7 +28289,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L757" t="inlineStr">
         <is>
@@ -28586,7 +28330,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L758" t="inlineStr">
         <is>
@@ -28627,7 +28371,7 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L759" t="inlineStr">
         <is>
@@ -28668,7 +28412,7 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L760" t="inlineStr">
         <is>
@@ -28709,7 +28453,7 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L761" t="inlineStr">
         <is>
@@ -28750,7 +28494,7 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L762" t="inlineStr">
         <is>
@@ -28791,7 +28535,7 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L763" t="inlineStr">
         <is>
@@ -28832,7 +28576,7 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L764" t="inlineStr">
         <is>
@@ -28873,7 +28617,7 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L765" t="inlineStr">
         <is>
@@ -28914,7 +28658,7 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L766" t="inlineStr">
         <is>
@@ -28955,7 +28699,7 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L767" t="inlineStr">
         <is>
@@ -28996,7 +28740,7 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L768" t="inlineStr">
         <is>
@@ -29037,7 +28781,7 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L769" t="inlineStr">
         <is>
@@ -29078,7 +28822,7 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L770" t="inlineStr">
         <is>
@@ -29119,7 +28863,7 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L771" t="inlineStr">
         <is>
@@ -29160,7 +28904,7 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L772" t="inlineStr">
         <is>
@@ -29201,7 +28945,7 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L773" t="inlineStr">
         <is>
@@ -29242,7 +28986,7 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L774" t="inlineStr">
         <is>
@@ -29283,7 +29027,7 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L775" t="inlineStr">
         <is>
@@ -29324,7 +29068,7 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L776" t="inlineStr">
         <is>
@@ -29365,7 +29109,7 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L777" t="inlineStr">
         <is>
@@ -29406,7 +29150,7 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L778" t="inlineStr">
         <is>
@@ -29447,7 +29191,7 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L779" t="inlineStr">
         <is>
@@ -29488,7 +29232,7 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L780" t="inlineStr">
         <is>
@@ -29529,7 +29273,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L781" t="inlineStr">
         <is>
@@ -29570,7 +29314,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L782" t="inlineStr">
         <is>
@@ -29611,7 +29355,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L783" t="inlineStr">
         <is>
@@ -29652,7 +29396,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L784" t="inlineStr">
         <is>
@@ -29693,7 +29437,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L785" t="inlineStr">
         <is>
@@ -29734,7 +29478,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L786" t="inlineStr">
         <is>
@@ -29775,7 +29519,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L787" t="inlineStr">
         <is>
@@ -29816,7 +29560,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L788" t="inlineStr">
         <is>
@@ -29857,7 +29601,7 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L789" t="inlineStr">
         <is>
@@ -29898,7 +29642,7 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L790" t="inlineStr">
         <is>
@@ -29939,7 +29683,7 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L791" t="inlineStr">
         <is>
@@ -29980,7 +29724,7 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L792" t="inlineStr">
         <is>
@@ -30021,7 +29765,7 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L793" t="inlineStr">
         <is>
@@ -30062,7 +29806,7 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L794" t="inlineStr">
         <is>
@@ -30103,7 +29847,7 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L795" t="inlineStr">
         <is>
@@ -30144,7 +29888,7 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L796" t="inlineStr">
         <is>
@@ -30185,7 +29929,7 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L797" t="inlineStr">
         <is>
@@ -30226,7 +29970,7 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L798" t="inlineStr">
         <is>
@@ -30267,7 +30011,7 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L799" t="inlineStr">
         <is>
@@ -30308,7 +30052,7 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L800" t="inlineStr">
         <is>
@@ -30349,7 +30093,7 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L801" t="inlineStr">
         <is>
@@ -30390,7 +30134,7 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L802" t="inlineStr">
         <is>
@@ -30431,7 +30175,7 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L803" t="inlineStr">
         <is>
@@ -30472,7 +30216,7 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L804" t="inlineStr">
         <is>
@@ -30513,7 +30257,7 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L805" t="inlineStr">
         <is>
@@ -30554,7 +30298,7 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L806" t="inlineStr">
         <is>
@@ -30595,7 +30339,7 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L807" t="inlineStr">
         <is>
@@ -30636,7 +30380,7 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L808" t="inlineStr">
         <is>
@@ -30677,7 +30421,7 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L809" t="inlineStr">
         <is>
@@ -30718,7 +30462,7 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L810" t="inlineStr">
         <is>
@@ -30759,7 +30503,7 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L811" t="inlineStr">
         <is>
@@ -30800,7 +30544,7 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L812" t="inlineStr">
         <is>
@@ -30841,7 +30585,7 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L813" t="inlineStr">
         <is>
@@ -30882,7 +30626,7 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L814" t="inlineStr">
         <is>
@@ -30923,7 +30667,7 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L815" t="inlineStr">
         <is>
@@ -30964,7 +30708,7 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L816" t="inlineStr">
         <is>
@@ -31005,7 +30749,7 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L817" t="inlineStr">
         <is>
@@ -31046,7 +30790,7 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L818" t="inlineStr">
         <is>
@@ -31087,7 +30831,7 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L819" t="inlineStr">
         <is>
@@ -31128,7 +30872,7 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L820" t="inlineStr">
         <is>
@@ -31169,7 +30913,7 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L821" t="inlineStr">
         <is>
@@ -31210,7 +30954,7 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L822" t="inlineStr">
         <is>
@@ -31251,7 +30995,7 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L823" t="inlineStr">
         <is>
@@ -31292,7 +31036,7 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L824" t="inlineStr">
         <is>
@@ -31333,7 +31077,7 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L825" t="inlineStr">
         <is>
@@ -31374,7 +31118,7 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L826" t="inlineStr">
         <is>
@@ -31415,7 +31159,7 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L827" t="inlineStr">
         <is>
@@ -31456,7 +31200,7 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L828" t="inlineStr">
         <is>
@@ -31497,7 +31241,7 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L829" t="inlineStr">
         <is>
@@ -31538,7 +31282,7 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L830" t="inlineStr">
         <is>
@@ -31579,7 +31323,7 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L831" t="inlineStr">
         <is>
@@ -31620,7 +31364,7 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L832" t="inlineStr">
         <is>
@@ -31661,7 +31405,7 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L833" t="inlineStr">
         <is>
@@ -31702,7 +31446,7 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L834" t="inlineStr">
         <is>
@@ -31743,7 +31487,7 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L835" t="inlineStr">
         <is>
@@ -31784,7 +31528,7 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L836" t="inlineStr">
         <is>
@@ -31825,7 +31569,7 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L837" t="inlineStr">
         <is>
@@ -31866,7 +31610,7 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L838" t="inlineStr">
         <is>
@@ -31907,7 +31651,7 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L839" t="inlineStr">
         <is>
@@ -31948,7 +31692,7 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L840" t="inlineStr">
         <is>
@@ -31989,7 +31733,7 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L841" t="inlineStr">
         <is>
@@ -32030,7 +31774,7 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L842" t="inlineStr">
         <is>
@@ -32071,7 +31815,7 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L843" t="inlineStr">
         <is>
@@ -32112,7 +31856,7 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L844" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest DAC.xlsx
+++ b/BackTest/2019-10-26 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1622290.0831</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1622290.0831</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2146917.083099999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2872638.9701</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2087944.5341</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2279501.347899999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2093395.7019</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2395945.9627</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2127340.5717</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2617895.6199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2405534.9596</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2381428.5116</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2381428.5116</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2381428.5116</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2899239.7637</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2493581.8777</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2632037.9507</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3374285.9558</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3807206.5358</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3650284.2028</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3421,17 +3421,11 @@
         <v>-1434192.571700001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3501,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3612,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3645,17 +3619,11 @@
         <v>-1513511.404900001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3684,17 +3652,11 @@
         <v>-1513511.404900001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3723,17 +3685,11 @@
         <v>-1174764.528900001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3762,17 +3718,11 @@
         <v>-1442208.455900001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3801,17 +3751,11 @@
         <v>-1163249.538900001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3840,17 +3784,11 @@
         <v>-846481.122900001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3817,11 @@
         <v>-846481.122900001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3850,11 @@
         <v>-1208693.482900001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3957,17 +3883,11 @@
         <v>-1208693.482900001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +3916,11 @@
         <v>-964555.3299000012</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3949,11 @@
         <v>-1132837.466900001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +3982,11 @@
         <v>-856779.3859000013</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +4015,11 @@
         <v>-589571.2589000013</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +4048,11 @@
         <v>-847183.0389000013</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +4081,11 @@
         <v>-847183.0389000013</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4230,17 +4114,11 @@
         <v>-847183.0389000013</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4269,17 +4147,11 @@
         <v>-646671.6399000013</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4308,17 +4180,11 @@
         <v>-969600.0319000013</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4347,17 +4213,11 @@
         <v>-1083517.958900001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4386,17 +4246,11 @@
         <v>-797495.5939000014</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4425,17 +4279,11 @@
         <v>-1051093.264900001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4464,17 +4312,11 @@
         <v>-906196.9119000015</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4503,17 +4345,11 @@
         <v>-1061948.250900001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4542,17 +4378,11 @@
         <v>-881327.3209000016</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4581,17 +4411,11 @@
         <v>-881327.3209000016</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4620,17 +4444,11 @@
         <v>-1099134.679900002</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4659,17 +4477,11 @@
         <v>-1376330.627900002</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4698,17 +4510,11 @@
         <v>-1130365.108900002</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4737,17 +4543,11 @@
         <v>-1130365.108900002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4776,17 +4576,11 @@
         <v>-847520.7179000014</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4815,17 +4609,11 @@
         <v>-847520.7179000014</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4854,17 +4642,11 @@
         <v>-847520.7179000014</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4897,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4934,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4967,17 +4741,11 @@
         <v>-864128.6279000014</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5006,17 +4774,11 @@
         <v>-864128.6279000014</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5045,17 +4807,11 @@
         <v>-864128.6279000014</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5084,17 +4840,11 @@
         <v>-864128.6279000014</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5123,17 +4873,11 @@
         <v>-864128.6279000014</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5166,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5199,17 +4939,11 @@
         <v>-864128.6279000014</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5242,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5279,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5349,16 +5071,14 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
       <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -5384,7 +5104,7 @@
         <v>-789511.1347000013</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5417,7 +5137,7 @@
         <v>-785627.6740000013</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5450,7 +5170,7 @@
         <v>-1063542.284000001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5483,7 +5203,7 @@
         <v>-1186101.804000001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5549,7 +5269,7 @@
         <v>-1128350.648000001</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5615,7 +5335,7 @@
         <v>-561871.6220000014</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5648,7 +5368,7 @@
         <v>-893639.0310000014</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5714,7 +5434,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5747,7 +5467,7 @@
         <v>-535510.5430000013</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5780,7 +5500,7 @@
         <v>-802583.5880000014</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5813,7 +5533,7 @@
         <v>-613554.8700000014</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5846,7 +5566,7 @@
         <v>-386386.5970000014</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5879,7 +5599,7 @@
         <v>-629996.7230000014</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5912,7 +5632,7 @@
         <v>-414628.4360000014</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5945,7 +5665,7 @@
         <v>-601123.3444000013</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5978,7 +5698,7 @@
         <v>-608208.6899000014</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6011,7 +5731,7 @@
         <v>-608208.6899000014</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6044,7 +5764,7 @@
         <v>-992885.8789000014</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6077,7 +5797,7 @@
         <v>-1121695.645900002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6110,7 +5830,7 @@
         <v>-900737.0849000015</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6143,7 +5863,7 @@
         <v>-1095331.936900001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6176,7 +5896,7 @@
         <v>-856366.3719000015</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6209,7 +5929,7 @@
         <v>-1147823.178900002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6242,7 +5962,7 @@
         <v>-1018850.049900002</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6275,7 +5995,7 @@
         <v>-798610.9110000016</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6308,7 +6028,7 @@
         <v>-636529.9880000015</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6341,7 +6061,7 @@
         <v>-636529.9880000015</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6374,7 +6094,7 @@
         <v>-635060.6011000015</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6407,7 +6127,7 @@
         <v>-639274.2897000015</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6440,7 +6160,7 @@
         <v>-635877.0826000015</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6473,7 +6193,7 @@
         <v>-635877.0826000015</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6506,7 +6226,7 @@
         <v>-864171.7056000015</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6539,7 +6259,7 @@
         <v>-857504.6254000015</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6572,7 +6292,7 @@
         <v>-1162858.377100002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6605,7 +6325,7 @@
         <v>-883869.9731000016</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6638,7 +6358,7 @@
         <v>-1019995.360000002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6671,7 +6391,7 @@
         <v>-1454868.762100002</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6704,7 +6424,7 @@
         <v>-1782800.760100001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6737,7 +6457,7 @@
         <v>-2081196.677500001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6770,7 +6490,7 @@
         <v>-1957174.200900001</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6803,7 +6523,7 @@
         <v>-2505859.502900002</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6836,7 +6556,7 @@
         <v>-2268792.710900002</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6869,7 +6589,7 @@
         <v>-2567494.602000002</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6902,7 +6622,7 @@
         <v>-2416253.297900002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6935,7 +6655,7 @@
         <v>-2644677.556600002</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6968,7 +6688,7 @@
         <v>-2499358.614600002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7001,7 +6721,7 @@
         <v>-2384730.180600002</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7034,7 +6754,7 @@
         <v>-2384730.180600002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7067,7 +6787,7 @@
         <v>-2118675.371600003</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7100,7 +6820,7 @@
         <v>-2247391.750400003</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7133,7 +6853,7 @@
         <v>-2243293.992200003</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7166,7 +6886,7 @@
         <v>-2422266.289200002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7199,7 +6919,7 @@
         <v>-2537646.697000002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7232,7 +6952,7 @@
         <v>-2239938.413700002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7265,7 +6985,7 @@
         <v>-2239938.413700002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7298,7 +7018,7 @@
         <v>-2556764.461700002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7331,7 +7051,7 @@
         <v>-2282284.623700002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7364,7 +7084,7 @@
         <v>-2276160.479000002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7397,7 +7117,7 @@
         <v>-2281771.576200002</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7430,7 +7150,7 @@
         <v>-2537151.107200002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7463,7 +7183,7 @@
         <v>-2771876.754200002</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7496,7 +7216,7 @@
         <v>-2624757.135800002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7529,7 +7249,7 @@
         <v>-2624757.135800002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7562,7 +7282,7 @@
         <v>-2893311.218800002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7595,7 +7315,7 @@
         <v>-2667231.563800002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7628,7 +7348,7 @@
         <v>-2503204.759800002</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7661,7 +7381,7 @@
         <v>-2322708.534000002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7694,7 +7414,7 @@
         <v>-2400316.745000002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7727,7 +7447,7 @@
         <v>-2698834.603000002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7760,7 +7480,7 @@
         <v>-2547177.492000002</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7793,7 +7513,7 @@
         <v>-2681344.503000002</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7826,7 +7546,7 @@
         <v>-2555840.963000002</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7859,7 +7579,7 @@
         <v>-2555840.963000002</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7892,7 +7612,7 @@
         <v>-2715147.248000002</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7925,7 +7645,7 @@
         <v>-2715147.248000002</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7958,7 +7678,7 @@
         <v>-3008931.561000003</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7991,7 +7711,7 @@
         <v>-2712003.137000002</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8024,7 +7744,7 @@
         <v>-2242397.316000002</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8057,7 +7777,7 @@
         <v>-1985116.645000002</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8090,7 +7810,7 @@
         <v>-2317279.622000002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8123,7 +7843,7 @@
         <v>-2045981.220000002</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8156,7 +7876,7 @@
         <v>-2199316.380000002</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8189,7 +7909,7 @@
         <v>-2114486.606000002</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8222,7 +7942,7 @@
         <v>-2069493.804400002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8255,7 +7975,7 @@
         <v>-2069493.804400002</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8288,7 +8008,7 @@
         <v>-2263666.667400002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8321,7 +8041,7 @@
         <v>-2048946.370400002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8354,7 +8074,7 @@
         <v>-2191106.970400002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8387,7 +8107,7 @@
         <v>-1832830.477400002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8420,7 +8140,7 @@
         <v>-1632727.763400002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8453,7 +8173,7 @@
         <v>-1942191.073400002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8486,7 +8206,7 @@
         <v>-1681360.178400002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8519,7 +8239,7 @@
         <v>-1787596.487400002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8552,7 +8272,7 @@
         <v>-1527053.482400002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8585,7 +8305,7 @@
         <v>-1809312.388400002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8618,7 +8338,7 @@
         <v>-1579726.650400002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8651,7 +8371,7 @@
         <v>-1579726.650400002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8684,7 +8404,7 @@
         <v>-1922068.925400002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8717,7 +8437,7 @@
         <v>-2169045.825400002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8750,7 +8470,7 @@
         <v>-1884704.311400002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8783,7 +8503,7 @@
         <v>-2336907.221400002</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8816,7 +8536,7 @@
         <v>-2443909.544400002</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8882,7 +8602,7 @@
         <v>-1922243.263400002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8915,7 +8635,7 @@
         <v>-1922243.263400002</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8948,7 +8668,7 @@
         <v>-2099407.723400002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8981,7 +8701,7 @@
         <v>-2261448.422400002</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9014,7 +8734,7 @@
         <v>-1929347.968400002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9047,7 +8767,7 @@
         <v>-1511648.525400002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9080,7 +8800,7 @@
         <v>-1511648.525400002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9113,7 +8833,7 @@
         <v>-1231016.405400002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9146,7 +8866,7 @@
         <v>-1231016.405400002</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9179,7 +8899,7 @@
         <v>-959772.1964000019</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9212,7 +8932,7 @@
         <v>-668623.9034000018</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9245,7 +8965,7 @@
         <v>-888793.3534000018</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9278,7 +8998,7 @@
         <v>-478904.1644000018</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9311,7 +9031,7 @@
         <v>-770252.0684000017</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9344,7 +9064,7 @@
         <v>-563869.1474000018</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9377,7 +9097,7 @@
         <v>-765581.4534000017</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9410,7 +9130,7 @@
         <v>-650469.2424000017</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9443,7 +9163,7 @@
         <v>-411102.8284000017</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9476,7 +9196,7 @@
         <v>-680739.4894000017</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9509,7 +9229,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9542,7 +9262,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9575,7 +9295,7 @@
         <v>-591787.7404000016</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9608,7 +9328,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9641,7 +9361,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9674,7 +9394,7 @@
         <v>-798921.7744000016</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9707,7 +9427,7 @@
         <v>-598570.5534000016</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9740,7 +9460,7 @@
         <v>-734034.5154000015</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9773,7 +9493,7 @@
         <v>-990351.2324000015</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9806,7 +9526,7 @@
         <v>-1263748.596400002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9839,7 +9559,7 @@
         <v>-1005331.614400002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9872,7 +9592,7 @@
         <v>-1309780.799400002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9905,7 +9625,7 @@
         <v>-1002433.547400002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9938,7 +9658,7 @@
         <v>-1432049.317400001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9971,7 +9691,7 @@
         <v>-1273182.568400001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10004,7 +9724,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10037,7 +9757,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10070,7 +9790,7 @@
         <v>-1957147.203400001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10103,7 +9823,7 @@
         <v>-1693019.043400001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10136,7 +9856,7 @@
         <v>-1720174.043400001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10169,7 +9889,7 @@
         <v>-1475505.043400001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10202,7 +9922,7 @@
         <v>-1475505.043400001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10235,7 +9955,7 @@
         <v>-1755361.707400002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10268,7 +9988,7 @@
         <v>-2060575.781400002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10301,7 +10021,7 @@
         <v>-1579663.611400002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10334,7 +10054,7 @@
         <v>-1709353.193400002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10367,7 +10087,7 @@
         <v>-1387579.144400002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10400,7 +10120,7 @@
         <v>-1392668.144400002</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10433,7 +10153,7 @@
         <v>-1392668.144400002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10466,7 +10186,7 @@
         <v>-1278028.429400001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10499,7 +10219,7 @@
         <v>-1415475.964200001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10532,7 +10252,7 @@
         <v>-1574533.199900002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10565,7 +10285,7 @@
         <v>-1917399.278300002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10598,7 +10318,7 @@
         <v>-1595822.444300001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10631,7 +10351,7 @@
         <v>-1713738.690800001</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10664,7 +10384,7 @@
         <v>-1839664.337700001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10697,7 +10417,7 @@
         <v>-1587997.911700001</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10730,7 +10450,7 @@
         <v>-1582790.378300001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10763,7 +10483,7 @@
         <v>-1752983.651500001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10796,7 +10516,7 @@
         <v>-1752983.651500001</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10829,7 +10549,7 @@
         <v>-1746494.097100001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10862,7 +10582,7 @@
         <v>-1902544.061100001</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10895,7 +10615,7 @@
         <v>-2031492.754100001</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10961,7 +10681,7 @@
         <v>-1722593.233100001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10994,7 +10714,7 @@
         <v>-1590823.762600001</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11027,7 +10747,7 @@
         <v>-1752831.898100001</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11060,7 +10780,7 @@
         <v>-1437772.950100001</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11093,7 +10813,7 @@
         <v>-1553675.661000001</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11225,7 +10945,7 @@
         <v>-1687100.051400001</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11291,7 +11011,7 @@
         <v>-1807700.774100001</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11555,7 +11275,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11588,7 +11308,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11621,7 +11341,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11654,7 +11374,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11687,7 +11407,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11720,7 +11440,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11753,7 +11473,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11786,7 +11506,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11819,7 +11539,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11852,7 +11572,7 @@
         <v>-2113413.056500001</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11885,7 +11605,7 @@
         <v>-2242747.972500002</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11918,7 +11638,7 @@
         <v>-2385148.836500002</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11951,7 +11671,7 @@
         <v>-2381189.896000002</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11984,7 +11704,7 @@
         <v>-2076146.755000002</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12017,7 +11737,7 @@
         <v>-2182780.542000001</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12050,7 +11770,7 @@
         <v>-2377647.726000001</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12083,7 +11803,7 @@
         <v>-2084197.112000001</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12116,7 +11836,7 @@
         <v>-2353301.989000001</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12149,7 +11869,7 @@
         <v>-2162799.468000001</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12182,7 +11902,7 @@
         <v>-2623693.590000001</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12215,7 +11935,7 @@
         <v>-2471800.730000001</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12347,7 +12067,7 @@
         <v>-2092679.089900001</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12380,7 +12100,7 @@
         <v>-2244041.562900001</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12413,7 +12133,7 @@
         <v>-2135573.519900001</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12446,7 +12166,7 @@
         <v>-2460147.693900001</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12479,7 +12199,7 @@
         <v>-2184093.933900001</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12512,7 +12232,7 @@
         <v>-2448124.838900001</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12545,7 +12265,7 @@
         <v>-2757653.200900001</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12578,7 +12298,7 @@
         <v>-2437972.221900001</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12611,7 +12331,7 @@
         <v>-2708407.784900001</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12644,7 +12364,7 @@
         <v>-2427443.035900001</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12677,7 +12397,7 @@
         <v>-2765540.473900001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12710,7 +12430,7 @@
         <v>-2604300.868900002</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12743,7 +12463,7 @@
         <v>-2912656.774900001</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12776,7 +12496,7 @@
         <v>-2654831.573900002</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12809,7 +12529,7 @@
         <v>-2942558.681900002</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12842,7 +12562,7 @@
         <v>-3276057.193900002</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12875,7 +12595,7 @@
         <v>-3041069.666600002</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12908,7 +12628,7 @@
         <v>-3358332.382600002</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12941,7 +12661,7 @@
         <v>-3131139.130600002</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13601,7 +13321,7 @@
         <v>-3357591.077000003</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14228,7 +13948,7 @@
         <v>-3395346.963900004</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14261,7 +13981,7 @@
         <v>-3395346.963900004</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14294,7 +14014,7 @@
         <v>-3395346.963900004</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14426,7 +14146,7 @@
         <v>-3421037.535100004</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14558,7 +14278,7 @@
         <v>-3981030.046100004</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16307,7 +16027,7 @@
         <v>-3511345.039100002</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16340,7 +16060,7 @@
         <v>-3190224.993100002</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16373,7 +16093,7 @@
         <v>-3190224.993100002</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16406,7 +16126,7 @@
         <v>-3488197.225100002</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16538,7 +16258,7 @@
         <v>-3445894.757400001</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16571,7 +16291,7 @@
         <v>-3606714.717400001</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16604,7 +16324,7 @@
         <v>-3863214.698400002</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16637,7 +16357,7 @@
         <v>-3710687.499400001</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16670,7 +16390,7 @@
         <v>-3863113.324400002</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16703,7 +16423,7 @@
         <v>-3840609.324400002</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16769,7 +16489,7 @@
         <v>-4003341.170400002</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16802,7 +16522,7 @@
         <v>-3549054.933400001</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16835,7 +16555,7 @@
         <v>-3653855.605400001</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16868,7 +16588,7 @@
         <v>-3403769.372400001</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16901,7 +16621,7 @@
         <v>-3677437.436400001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16934,7 +16654,7 @@
         <v>-3677437.436400001</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16967,7 +16687,7 @@
         <v>-3379987.171400001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17000,7 +16720,7 @@
         <v>-3658538.034400001</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17033,7 +16753,7 @@
         <v>-3539405.545400001</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17066,7 +16786,7 @@
         <v>-3539405.545400001</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17099,7 +16819,7 @@
         <v>-3539405.545400001</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17132,7 +16852,7 @@
         <v>-3540465.545400001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17165,7 +16885,7 @@
         <v>-3539937.545400001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17198,7 +16918,7 @@
         <v>-3588467.545400001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17231,7 +16951,7 @@
         <v>-3379893.423400001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17264,7 +16984,7 @@
         <v>-3663573.031400001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17297,7 +17017,7 @@
         <v>-3386834.555400001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17330,7 +17050,7 @@
         <v>-3236594.712400001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17363,7 +17083,7 @@
         <v>-3215713.337100001</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17396,7 +17116,7 @@
         <v>-3218547.337100001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17429,7 +17149,7 @@
         <v>-3473863.872100001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17462,7 +17182,7 @@
         <v>-3258840.546100001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17495,7 +17215,7 @@
         <v>-3631048.271500001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17528,7 +17248,7 @@
         <v>-3361891.665100001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17561,7 +17281,7 @@
         <v>-3361891.665100001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17594,7 +17314,7 @@
         <v>-3361891.665100001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17627,7 +17347,7 @@
         <v>-3647290.159100001</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17660,7 +17380,7 @@
         <v>-3320046.371100001</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17693,7 +17413,7 @@
         <v>-3569567.010100001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17726,7 +17446,7 @@
         <v>-3345686.807100001</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17759,7 +17479,7 @@
         <v>-3636046.707100001</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17792,7 +17512,7 @@
         <v>-3383308.545100001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17825,7 +17545,7 @@
         <v>-3383308.545100001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17858,7 +17578,7 @@
         <v>-3383298.545100001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17891,7 +17611,7 @@
         <v>-3384358.545100001</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17924,7 +17644,7 @@
         <v>-3384358.545100001</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17957,7 +17677,7 @@
         <v>-3387738.545100001</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17990,7 +17710,7 @@
         <v>-2956017.525100001</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18023,7 +17743,7 @@
         <v>-3193771.725100001</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18056,7 +17776,7 @@
         <v>-2941806.096100001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18089,7 +17809,7 @@
         <v>-2941806.096100001</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18122,7 +17842,7 @@
         <v>-2941806.096100001</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18155,7 +17875,7 @@
         <v>-3180362.4981</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18188,7 +17908,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18221,7 +17941,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18254,7 +17974,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18287,7 +18007,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18320,7 +18040,7 @@
         <v>-3218534.258400001</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18353,7 +18073,7 @@
         <v>-2934700.3934</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18386,7 +18106,7 @@
         <v>-2934700.3934</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18419,7 +18139,7 @@
         <v>-3278307.7004</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18452,7 +18172,7 @@
         <v>-3278307.7004</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18485,7 +18205,7 @@
         <v>-3024583.832400001</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18518,7 +18238,7 @@
         <v>-3024583.832400001</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18551,7 +18271,7 @@
         <v>-3024583.832400001</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18584,7 +18304,7 @@
         <v>-3220452.736400001</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18617,7 +18337,7 @@
         <v>-2969882.830400001</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18650,7 +18370,7 @@
         <v>-3469512.836400001</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18683,7 +18403,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18716,7 +18436,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18749,7 +18469,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18782,7 +18502,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18815,7 +18535,7 @@
         <v>-3271112.745100001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18848,7 +18568,7 @@
         <v>-3271112.745100001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18881,7 +18601,7 @@
         <v>-3113019.730100001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18914,7 +18634,7 @@
         <v>-3355141.882100001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18947,7 +18667,7 @@
         <v>-3355141.882100001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18980,7 +18700,7 @@
         <v>-3604781.616100001</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19013,7 +18733,7 @@
         <v>-3308215.227100001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19046,7 +18766,7 @@
         <v>-3611466.584100001</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19079,7 +18799,7 @@
         <v>-3902683.092600001</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19112,7 +18832,7 @@
         <v>-3902683.092600001</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19145,7 +18865,7 @@
         <v>-3576253.072600001</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19178,7 +18898,7 @@
         <v>-3576253.072600001</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19211,7 +18931,7 @@
         <v>-3388363.037600001</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19244,7 +18964,7 @@
         <v>-3388363.037600001</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19277,7 +18997,7 @@
         <v>-3712010.803600001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19310,7 +19030,7 @@
         <v>-4014818.024600001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19343,7 +19063,7 @@
         <v>-4336805.756600001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19376,7 +19096,7 @@
         <v>-4014817.775600001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19409,7 +19129,7 @@
         <v>-4137255.040600001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19442,7 +19162,7 @@
         <v>-3834547.155600001</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19475,7 +19195,7 @@
         <v>-3840434.612400001</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21191,10 +20911,14 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J622" t="n">
+        <v>3.38</v>
+      </c>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
@@ -21224,11 +20948,19 @@
         <v>-4653455.630600002</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J623" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21257,11 +20989,19 @@
         <v>-4346201.121600002</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J624" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21290,15 +21030,19 @@
         <v>-4052180.042800002</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>3.34</v>
       </c>
       <c r="J625" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K625" t="inlineStr"/>
+        <v>3.38</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21327,15 +21071,17 @@
         <v>-4395932.604800002</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J626" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L626" t="n">
@@ -21366,11 +21112,13 @@
         <v>-4125585.384800002</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J627" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21405,11 +21153,13 @@
         <v>-3826124.280800002</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J628" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21444,11 +21194,13 @@
         <v>-4174626.061800002</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J629" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21483,11 +21235,13 @@
         <v>-4173595.061800002</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J630" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21522,11 +21276,13 @@
         <v>-4190155.061800002</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J631" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21561,11 +21317,13 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>3.33</v>
+      </c>
       <c r="J632" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21600,11 +21358,13 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J633" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21639,11 +21399,13 @@
         <v>-3631798.369800002</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J634" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21678,11 +21440,13 @@
         <v>-3961180.231800003</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J635" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21717,11 +21481,13 @@
         <v>-3620557.061800003</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J636" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21756,11 +21522,13 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J637" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21795,11 +21563,13 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J638" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21834,11 +21604,13 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J639" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21873,11 +21645,13 @@
         <v>-3535439.416800003</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J640" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21912,11 +21686,13 @@
         <v>-3675701.808800003</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J641" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21951,11 +21727,13 @@
         <v>-3430381.349800003</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J642" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21990,11 +21768,13 @@
         <v>-3697512.955800003</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J643" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22029,11 +21809,13 @@
         <v>-3451991.424800003</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J644" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22068,11 +21850,13 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J645" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22107,11 +21891,13 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J646" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22146,11 +21932,13 @@
         <v>-3506514.459800003</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J647" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22185,11 +21973,13 @@
         <v>-3257771.413800003</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J648" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22224,11 +22014,13 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J649" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22263,11 +22055,13 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J650" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22302,11 +22096,13 @@
         <v>-3382508.056400003</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J651" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22345,7 +22141,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22384,7 +22180,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22423,7 +22219,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22462,7 +22258,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22501,7 +22297,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22540,7 +22336,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22579,7 +22375,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22618,7 +22414,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22657,7 +22453,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22696,7 +22492,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22735,7 +22531,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22774,7 +22570,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22813,7 +22609,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22852,7 +22648,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22891,7 +22687,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22930,7 +22726,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22969,7 +22765,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23008,7 +22804,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23047,7 +22843,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23086,7 +22882,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23125,7 +22921,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23164,7 +22960,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23203,7 +22999,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23242,7 +23038,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23281,7 +23077,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23320,7 +23116,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23359,7 +23155,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23398,7 +23194,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23437,7 +23233,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23476,7 +23272,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23515,7 +23311,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23554,7 +23350,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23593,7 +23389,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23632,7 +23428,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23671,7 +23467,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23710,7 +23506,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23749,7 +23545,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23788,7 +23584,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23827,7 +23623,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23866,7 +23662,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23905,7 +23701,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23944,7 +23740,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23983,7 +23779,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24022,7 +23818,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24061,7 +23857,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24100,7 +23896,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24139,7 +23935,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24178,7 +23974,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24217,7 +24013,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24256,7 +24052,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24291,910 +24087,1072 @@
         <v>-1778608.081000003</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D703" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E703" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F703" t="n">
+        <v>226742.015</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-2005350.096000004</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C704" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D704" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E704" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F704" t="n">
+        <v>339380.605</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-1665969.491000004</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C705" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D705" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E705" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F705" t="n">
+        <v>264960.137</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-1930929.628000004</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C706" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D706" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E706" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F706" t="n">
+        <v>105057.089</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-2035986.717000004</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C707" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D707" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E707" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F707" t="n">
+        <v>306344.339</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-2342331.056000004</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C708" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D708" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E708" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F708" t="n">
+        <v>267714.317</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-2610045.373000003</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C709" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D709" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E709" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F709" t="n">
+        <v>306943.1</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-2303102.273000003</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L709" t="n">
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C710" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D710" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E710" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F710" t="n">
+        <v>322172.679</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-1980929.594000003</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C711" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D711" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E711" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F711" t="n">
+        <v>348190.311</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-1980929.594000003</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C712" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D712" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E712" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F712" t="n">
+        <v>263651.121</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-2244580.715000003</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C713" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D713" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E713" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F713" t="n">
+        <v>311971.8</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-2244580.715000003</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C714" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D714" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E714" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F714" t="n">
+        <v>319265.463</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-2563846.178000003</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C715" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D715" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E715" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F715" t="n">
+        <v>323596.91</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-2887443.088000003</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C716" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D716" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E716" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F716" t="n">
+        <v>268805.242</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-2618637.846000003</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C717" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D717" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E717" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F717" t="n">
+        <v>227973.083</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-2390664.763000003</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C718" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D718" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E718" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F718" t="n">
+        <v>29312</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-2419976.763000003</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C719" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D719" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E719" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F719" t="n">
+        <v>167712.74</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-2252264.023000003</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C720" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D720" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E720" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F720" t="n">
+        <v>272904.361</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-2525168.384000003</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C721" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D721" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E721" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F721" t="n">
+        <v>151890.471</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-2373277.913000003</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C722" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D722" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E722" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F722" t="n">
+        <v>94119.382</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-2467397.295000003</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C723" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D723" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E723" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F723" t="n">
+        <v>310911.526</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-2156485.769000003</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C724" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D724" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E724" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F724" t="n">
+        <v>279902.121</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-1876583.648000003</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C725" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D725" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E725" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F725" t="n">
+        <v>301485.09</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-2178068.738000003</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C726" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D726" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E726" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F726" t="n">
+        <v>159361.903</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-2018706.835000003</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C727" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D727" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E727" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F727" t="n">
+        <v>358133.257</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-2376840.092000003</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C728" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E728" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F728" t="n">
+        <v>141698.909</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-2235141.183000003</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C729" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D729" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E729" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F729" t="n">
+        <v>295025.788</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-2235141.183000003</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K729" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L702" t="n">
-        <v>1.024940119760479</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="C703" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D703" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E703" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F703" t="n">
-        <v>226742.015</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-2005350.096000004</v>
-      </c>
-      <c r="H703" t="n">
-        <v>3</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="C704" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="D704" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E704" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F704" t="n">
-        <v>339380.605</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-1665969.491000004</v>
-      </c>
-      <c r="H704" t="n">
-        <v>3</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C705" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D705" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E705" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F705" t="n">
-        <v>264960.137</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-1930929.628000004</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C706" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="D706" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E706" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F706" t="n">
-        <v>105057.089</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-2035986.717000004</v>
-      </c>
-      <c r="H706" t="n">
-        <v>3</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C707" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="D707" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E707" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F707" t="n">
-        <v>306344.339</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-2342331.056000004</v>
-      </c>
-      <c r="H707" t="n">
-        <v>3</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C708" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D708" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E708" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F708" t="n">
-        <v>267714.317</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-2610045.373000003</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="C709" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D709" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E709" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F709" t="n">
-        <v>306943.1</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-2303102.273000003</v>
-      </c>
-      <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C710" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="D710" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E710" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="F710" t="n">
-        <v>322172.679</v>
-      </c>
-      <c r="G710" t="n">
-        <v>-1980929.594000003</v>
-      </c>
-      <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="C711" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="D711" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E711" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F711" t="n">
-        <v>348190.311</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-1980929.594000003</v>
-      </c>
-      <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C712" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D712" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E712" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F712" t="n">
-        <v>263651.121</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-2244580.715000003</v>
-      </c>
-      <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C713" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D713" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E713" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F713" t="n">
-        <v>311971.8</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-2244580.715000003</v>
-      </c>
-      <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="C714" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D714" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E714" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F714" t="n">
-        <v>319265.463</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-2563846.178000003</v>
-      </c>
-      <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="C715" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D715" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E715" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F715" t="n">
-        <v>323596.91</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-2887443.088000003</v>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="C716" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="D716" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E716" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F716" t="n">
-        <v>268805.242</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-2618637.846000003</v>
-      </c>
-      <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="C717" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D717" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E717" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F717" t="n">
-        <v>227973.083</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-2390664.763000003</v>
-      </c>
-      <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C718" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D718" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E718" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="F718" t="n">
-        <v>29312</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-2419976.763000003</v>
-      </c>
-      <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C719" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="D719" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E719" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F719" t="n">
-        <v>167712.74</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-2252264.023000003</v>
-      </c>
-      <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C720" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="D720" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E720" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="F720" t="n">
-        <v>272904.361</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-2525168.384000003</v>
-      </c>
-      <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="C721" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="D721" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E721" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="F721" t="n">
-        <v>151890.471</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-2373277.913000003</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C722" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="D722" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E722" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F722" t="n">
-        <v>94119.382</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-2467397.295000003</v>
-      </c>
-      <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C723" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D723" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E723" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F723" t="n">
-        <v>310911.526</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-2156485.769000003</v>
-      </c>
-      <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C724" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="D724" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E724" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F724" t="n">
-        <v>279902.121</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-1876583.648000003</v>
-      </c>
-      <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C725" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D725" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E725" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F725" t="n">
-        <v>301485.09</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-2178068.738000003</v>
-      </c>
-      <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C726" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D726" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E726" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F726" t="n">
-        <v>159361.903</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-2018706.835000003</v>
-      </c>
-      <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="C727" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D727" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E727" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F727" t="n">
-        <v>358133.257</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-2376840.092000003</v>
-      </c>
-      <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="C728" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="D728" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E728" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F728" t="n">
-        <v>141698.909</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-2235141.183000003</v>
-      </c>
-      <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="C729" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="D729" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E729" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F729" t="n">
-        <v>295025.788</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-2235141.183000003</v>
-      </c>
-      <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
-        <v>1</v>
+        <v>1.003875739644971</v>
       </c>
       <c r="M729" t="inlineStr"/>
     </row>
@@ -25221,7 +25179,7 @@
         <v>-2494333.071000003</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25254,7 +25212,7 @@
         <v>-2746317.163000003</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25287,7 +25245,7 @@
         <v>-2621302.645000003</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25320,7 +25278,7 @@
         <v>-2666289.645000003</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25353,7 +25311,7 @@
         <v>-2526145.231000003</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25485,7 +25443,7 @@
         <v>-3007814.402600003</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25518,7 +25476,7 @@
         <v>-2875206.801600003</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25551,7 +25509,7 @@
         <v>-3206607.588600003</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25584,7 +25542,7 @@
         <v>-2812525.451600003</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25617,7 +25575,7 @@
         <v>-2812525.451600003</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25650,7 +25608,7 @@
         <v>-3065378.602600003</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25782,7 +25740,7 @@
         <v>-2930355.925600003</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25815,7 +25773,7 @@
         <v>-2670943.589600002</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25848,7 +25806,7 @@
         <v>-2904870.429600002</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -31260,14 +31218,10 @@
         <v>-5611888.721200003</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
-      </c>
-      <c r="I913" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J913" t="n">
-        <v>3.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
@@ -31275,6 +31229,6 @@
       <c r="M913" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest DAC.xlsx
+++ b/BackTest/2019-10-26 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1622290.0831</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1622290.0831</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2146917.083099999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2872638.9701</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2087944.5341</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2279501.347899999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2093395.7019</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2395945.9627</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2127340.5717</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2617895.6199</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2405534.9596</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2381428.5116</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2381428.5116</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2381428.5116</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2899239.7637</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2493581.8777</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2632037.9507</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3374285.9558</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3807206.5358</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3650284.2028</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-789511.1347000013</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-785627.6740000013</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1063542.284000001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1186101.804000001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-847721.9060000014</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1128350.648000001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-819413.0250000014</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-561871.6220000014</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-893639.0310000014</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-613554.8700000014</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-635060.6011000015</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-864171.7056000015</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-857504.6254000015</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1162858.377100002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-883869.9731000016</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1019995.360000002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1454868.762100002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1782800.760100001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2567494.602000002</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2416253.297900002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2644677.556600002</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2499358.614600002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2384730.180600002</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2384730.180600002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2118675.371600003</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2247391.750400003</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2243293.992200003</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2422266.289200002</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2537646.697000002</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2239938.413700002</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2239938.413700002</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2556764.461700002</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2282284.623700002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2276160.479000002</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2281771.576200002</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2537151.107200002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2771876.754200002</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2624757.135800002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2624757.135800002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2893311.218800002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2667231.563800002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2503204.759800002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2322708.534000002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2400316.745000002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2698834.603000002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2547177.492000002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2681344.503000002</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2555840.963000002</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2555840.963000002</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2715147.248000002</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2715147.248000002</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3008931.561000003</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2712003.137000002</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2242397.316000002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1985116.645000002</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2317279.622000002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2045981.220000002</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2199316.380000002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2114486.606000002</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2069493.804400002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2069493.804400002</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2263666.667400002</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2048946.370400002</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2191106.970400002</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1832830.477400002</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1632727.763400002</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1942191.073400002</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1681360.178400002</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1787596.487400002</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1527053.482400002</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1809312.388400002</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1579726.650400002</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1579726.650400002</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1922068.925400002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2169045.825400002</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1884704.311400002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-2336907.221400002</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2443909.544400002</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1922243.263400002</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1922243.263400002</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2099407.723400002</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2261448.422400002</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1929347.968400002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1511648.525400002</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1511648.525400002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1231016.405400002</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1231016.405400002</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-959772.1964000019</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-668623.9034000018</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-888793.3534000018</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-478904.1644000018</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-770252.0684000017</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-563869.1474000018</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-765581.4534000017</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-650469.2424000017</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-411102.8284000017</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-680739.4894000017</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-591787.7404000016</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-798921.7744000016</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-598570.5534000016</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-734034.5154000015</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-990351.2324000015</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1263748.596400002</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1005331.614400002</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1309780.799400002</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1002433.547400002</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1432049.317400001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1273182.568400001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1957147.203400001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1693019.043400001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1720174.043400001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1475505.043400001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1475505.043400001</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1755361.707400002</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2060575.781400002</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1579663.611400002</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1709353.193400002</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1387579.144400002</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1392668.144400002</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1392668.144400002</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1278028.429400001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1415475.964200001</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1574533.199900002</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1917399.278300002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1595822.444300001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1713738.690800001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1839664.337700001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1587997.911700001</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1582790.378300001</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1752983.651500001</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1752983.651500001</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1746494.097100001</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1902544.061100001</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-2031492.754100001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1722593.233100001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1590823.762600001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-2084197.112000001</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-2162799.468000001</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2092679.089900001</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2244041.562900001</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-2135573.519900001</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-2460147.693900001</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-2184093.933900001</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-2448124.838900001</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-2757653.200900001</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2437972.221900001</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-2708407.784900001</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-2427443.035900001</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-2765540.473900001</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-2604300.868900002</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-2912656.774900001</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-2654831.573900002</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-2942558.681900002</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-3488197.225100002</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3445894.757400001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-3606714.717400001</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3863214.698400002</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-3710687.499400001</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-3863113.324400002</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-3840609.324400002</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-4003341.170400002</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3549054.933400001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3653855.605400001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-3403769.372400001</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-3677437.436400001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-3677437.436400001</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-3379987.171400001</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3658538.034400001</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-3539405.545400001</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-3539405.545400001</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-3539405.545400001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-3540465.545400001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3539937.545400001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3588467.545400001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3379893.423400001</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3663573.031400001</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3386834.555400001</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3236594.712400001</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3215713.337100001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3218547.337100001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3473863.872100001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3258840.546100001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3631048.271500001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3361891.665100001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3361891.665100001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3361891.665100001</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3647290.159100001</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3320046.371100001</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3569567.010100001</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-3345686.807100001</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-3636046.707100001</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3383308.545100001</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3383308.545100001</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3383298.545100001</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3384358.545100001</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3384358.545100001</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3387738.545100001</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-2956017.525100001</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-3193771.725100001</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-2941806.096100001</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-2941806.096100001</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-2941806.096100001</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-3180362.4981</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3048284.556100001</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-3218534.258400001</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-2934700.3934</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-2934700.3934</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-3278307.7004</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-3278307.7004</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-3024583.832400001</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3024583.832400001</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-3024583.832400001</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-3220452.736400001</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-2969882.830400001</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-3469512.836400001</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3098302.913100001</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3271112.745100001</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3271112.745100001</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3113019.730100001</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3355141.882100001</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3355141.882100001</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3604781.616100001</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3308215.227100001</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3611466.584100001</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-3902683.092600001</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-3902683.092600001</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-3576253.072600001</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-3576253.072600001</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-3388363.037600001</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-3388363.037600001</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-3712010.803600001</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-4014818.024600001</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-4336805.756600001</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-4014817.775600001</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-4137255.040600001</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-3834547.155600001</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-3840434.612400001</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19855,10 +19855,14 @@
         <v>-4556358.098400001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J590" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
@@ -19891,8 +19895,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +19934,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +19973,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20012,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20051,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20090,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +20129,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20165,19 @@
         <v>-4640949.617400002</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J598" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20206,19 @@
         <v>-4541169.770400002</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J599" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20247,19 @@
         <v>-4542759.770400002</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J600" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20288,19 @@
         <v>-4542192.770400002</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J601" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20329,19 @@
         <v>-4780569.328400002</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J602" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20370,19 @@
         <v>-5003620.397400002</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J603" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +20414,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +20453,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20489,19 @@
         <v>-5081124.563400002</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J606" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20530,19 @@
         <v>-4853439.433400002</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J607" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +20574,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +20613,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +20652,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +20691,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +20730,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +20766,19 @@
         <v>-4650568.293400002</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J613" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +20807,19 @@
         <v>-4650568.293400002</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J614" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +20848,19 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J615" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +20889,19 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J616" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20930,19 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J617" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20971,19 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J618" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21012,19 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J619" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21056,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21095,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,15 +21131,17 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K622" t="inlineStr"/>
+        <v>3.34</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,17 +21170,15 @@
         <v>-4653455.630600002</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L623" t="n">
@@ -20989,13 +21209,11 @@
         <v>-4346201.121600002</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21030,13 +21248,11 @@
         <v>-4052180.042800002</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="n">
         <v>3.34</v>
-      </c>
-      <c r="J625" t="n">
-        <v>3.38</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21071,13 +21287,11 @@
         <v>-4395932.604800002</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21112,13 +21326,11 @@
         <v>-4125585.384800002</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21153,13 +21365,11 @@
         <v>-3826124.280800002</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21194,13 +21404,11 @@
         <v>-4174626.061800002</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21235,13 +21443,11 @@
         <v>-4173595.061800002</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21276,13 +21482,11 @@
         <v>-4190155.061800002</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21317,13 +21521,11 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21358,13 +21560,11 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21399,13 +21599,11 @@
         <v>-3631798.369800002</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21440,13 +21638,11 @@
         <v>-3961180.231800003</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21481,13 +21677,11 @@
         <v>-3620557.061800003</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21522,13 +21716,11 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21563,13 +21755,11 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21604,13 +21794,11 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21645,13 +21833,11 @@
         <v>-3535439.416800003</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21686,13 +21872,11 @@
         <v>-3675701.808800003</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21727,13 +21911,11 @@
         <v>-3430381.349800003</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
         <v>3.34</v>
-      </c>
-      <c r="J642" t="n">
-        <v>3.38</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21768,13 +21950,11 @@
         <v>-3697512.955800003</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21809,21 +21989,19 @@
         <v>-3451991.424800003</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
+        <v>2</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="n">
         <v>3.34</v>
-      </c>
-      <c r="J644" t="n">
-        <v>3.38</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L644" t="n">
-        <v>1</v>
+        <v>0.9979940119760479</v>
       </c>
       <c r="M644" t="inlineStr"/>
     </row>
@@ -21850,19 +22028,11 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J645" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21891,19 +22061,11 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J646" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21932,19 +22094,11 @@
         <v>-3506514.459800003</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J647" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21973,19 +22127,11 @@
         <v>-3257771.413800003</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J648" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22014,19 +22160,11 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J649" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22055,19 +22193,11 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J650" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22096,19 +22226,11 @@
         <v>-3382508.056400003</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J651" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22140,14 +22262,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22179,14 +22295,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22218,14 +22328,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22257,14 +22361,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22296,14 +22394,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22335,14 +22427,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22374,14 +22460,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22413,14 +22493,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22452,14 +22526,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22488,17 +22556,11 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22527,17 +22589,11 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22566,17 +22622,11 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22605,17 +22655,11 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22647,14 +22691,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22686,14 +22724,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22725,14 +22757,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22764,14 +22790,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22803,14 +22823,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22842,14 +22856,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22881,14 +22889,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22920,14 +22922,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22959,14 +22955,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22998,14 +22988,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23037,14 +23021,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23076,14 +23054,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23115,14 +23087,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23151,17 +23117,11 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23190,17 +23150,11 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23229,17 +23183,11 @@
         <v>-3133432.860700003</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23271,14 +23219,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23307,17 +23249,11 @@
         <v>-3368497.381700004</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23349,14 +23285,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23388,14 +23318,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23427,14 +23351,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23466,14 +23384,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23505,14 +23417,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23544,14 +23450,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23583,14 +23483,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23622,14 +23516,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23661,14 +23549,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23700,14 +23582,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23739,14 +23615,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23778,14 +23648,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23817,14 +23681,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23856,14 +23714,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23895,14 +23747,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23934,14 +23780,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23973,14 +23813,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24012,14 +23846,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24051,14 +23879,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24090,14 +23912,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24129,14 +23945,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24168,14 +23978,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24207,14 +24011,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24246,14 +24044,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24285,14 +24077,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24324,14 +24110,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24363,14 +24143,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24402,14 +24176,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24441,14 +24209,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24480,14 +24242,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24519,14 +24275,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24558,14 +24308,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24597,14 +24341,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24636,14 +24374,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24675,14 +24407,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24714,14 +24440,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24753,14 +24473,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24792,14 +24506,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24831,14 +24539,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24870,14 +24572,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24909,14 +24605,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24948,14 +24638,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24987,14 +24671,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25026,14 +24704,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25065,14 +24737,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25104,14 +24770,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25140,19 +24800,13 @@
         <v>-2235141.183000003</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
-        <v>1.003875739644971</v>
+        <v>1</v>
       </c>
       <c r="M729" t="inlineStr"/>
     </row>
@@ -25179,7 +24833,7 @@
         <v>-2494333.071000003</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25212,7 +24866,7 @@
         <v>-2746317.163000003</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25245,7 +24899,7 @@
         <v>-2621302.645000003</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25278,7 +24932,7 @@
         <v>-2666289.645000003</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25311,7 +24965,7 @@
         <v>-2526145.231000003</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25476,7 +25130,7 @@
         <v>-2875206.801600003</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25509,7 +25163,7 @@
         <v>-3206607.588600003</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25542,7 +25196,7 @@
         <v>-2812525.451600003</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25575,7 +25229,7 @@
         <v>-2812525.451600003</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25608,7 +25262,7 @@
         <v>-3065378.602600003</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25740,7 +25394,7 @@
         <v>-2930355.925600003</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25773,7 +25427,7 @@
         <v>-2670943.589600002</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25806,7 +25460,7 @@
         <v>-2904870.429600002</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -31053,7 +30707,7 @@
         <v>-4073207.746900002</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31229,6 +30883,6 @@
       <c r="M913" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest DAC.xlsx
+++ b/BackTest/2019-10-26 BackTest DAC.xlsx
@@ -5038,7 +5038,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-789511.1347000013</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-785627.6740000013</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1063542.284000001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1186101.804000001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-847721.9060000014</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1128350.648000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-819413.0250000014</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-561871.6220000014</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-893639.0310000014</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-535510.5430000013</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-802583.5880000014</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-613554.8700000014</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-386386.5970000014</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-629996.7230000014</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-414628.4360000014</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-601123.3444000013</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-608208.6899000014</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-992885.8789000014</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1121695.645900002</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-900737.0849000015</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1095331.936900001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-856366.3719000015</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1147823.178900002</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1018850.049900002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-636529.9880000015</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-635060.6011000015</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-864171.7056000015</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-857504.6254000015</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1162858.377100002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-883869.9731000016</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1019995.360000002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1454868.762100002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2081196.677500001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1957174.200900001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2505859.502900002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2268792.710900002</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2263666.667400002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1922068.925400002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2099407.723400002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1511648.525400002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-959772.1964000019</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-668623.9034000018</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-888793.3534000018</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-478904.1644000018</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-770252.0684000017</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-563869.1474000018</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-765581.4534000017</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-650469.2424000017</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-411102.8284000017</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-680739.4894000017</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-591787.7404000016</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-798921.7744000016</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-598570.5534000016</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-734034.5154000015</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-990351.2324000015</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1263748.596400002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1005331.614400002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1309780.799400002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1002433.547400002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1432049.317400001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -19855,14 +19855,10 @@
         <v>-4556358.098400001</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J590" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
@@ -19895,654 +19891,542 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C592" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D592" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E592" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F592" t="n">
+        <v>304382.895</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-4556628.219400002</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C593" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D593" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E593" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F593" t="n">
+        <v>291266.733</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-4847894.952400002</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C594" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D594" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E594" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F594" t="n">
+        <v>235448.714</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-4612446.238400002</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C595" t="n">
         <v>3.34</v>
       </c>
-      <c r="K591" t="inlineStr">
+      <c r="D595" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E595" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F595" t="n">
+        <v>232008.228</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-4844454.466400002</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C596" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D596" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E596" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F596" t="n">
+        <v>203504.849</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-4640949.617400002</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C597" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D597" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E597" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F597" t="n">
+        <v>277748.261</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-4640949.617400002</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C598" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D598" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E598" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F598" t="n">
+        <v>176334.789</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-4640949.617400002</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C599" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D599" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E599" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F599" t="n">
+        <v>99779.84699999999</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-4541169.770400002</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C600" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D600" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E600" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-4542759.770400002</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C601" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D601" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E601" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F601" t="n">
+        <v>567</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-4542192.770400002</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C602" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D602" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E602" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F602" t="n">
+        <v>238376.558</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-4780569.328400002</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C603" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D603" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E603" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F603" t="n">
+        <v>223051.069</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-5003620.397400002</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C604" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D604" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E604" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F604" t="n">
+        <v>208939.92</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-4794680.477400002</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C605" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D605" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E605" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F605" t="n">
+        <v>231812.258</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-4794680.477400002</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C606" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D606" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E606" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F606" t="n">
+        <v>286444.086</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-5081124.563400002</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C607" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D607" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E607" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F607" t="n">
+        <v>227685.13</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-4853439.433400002</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C592" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D592" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E592" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F592" t="n">
-        <v>304382.895</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-4556628.219400002</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C593" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="D593" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E593" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F593" t="n">
-        <v>291266.733</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-4847894.952400002</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C594" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D594" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E594" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F594" t="n">
-        <v>235448.714</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-4612446.238400002</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C595" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D595" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E595" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F595" t="n">
-        <v>232008.228</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-4844454.466400002</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C596" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D596" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E596" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F596" t="n">
-        <v>203504.849</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-4640949.617400002</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C597" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D597" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E597" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F597" t="n">
-        <v>277748.261</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-4640949.617400002</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C598" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D598" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E598" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F598" t="n">
-        <v>176334.789</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-4640949.617400002</v>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J598" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C599" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D599" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="E599" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F599" t="n">
-        <v>99779.84699999999</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-4541169.770400002</v>
-      </c>
-      <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J599" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C600" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D600" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E600" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F600" t="n">
-        <v>1590</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-4542759.770400002</v>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="J600" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="C601" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="D601" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E601" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="F601" t="n">
-        <v>567</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-4542192.770400002</v>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J601" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="C602" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D602" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E602" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F602" t="n">
-        <v>238376.558</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-4780569.328400002</v>
-      </c>
-      <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J602" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="C603" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D603" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E603" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F603" t="n">
-        <v>223051.069</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-5003620.397400002</v>
-      </c>
-      <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J603" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C604" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D604" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E604" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F604" t="n">
-        <v>208939.92</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-4794680.477400002</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C605" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D605" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E605" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F605" t="n">
-        <v>231812.258</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-4794680.477400002</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C606" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D606" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E606" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F606" t="n">
-        <v>286444.086</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-5081124.563400002</v>
-      </c>
-      <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J606" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C607" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D607" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="E607" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F607" t="n">
-        <v>227685.13</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-4853439.433400002</v>
-      </c>
-      <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J607" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20574,9 +20458,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20610,12 +20492,12 @@
         <v>-5178198.402400002</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20649,12 +20531,12 @@
         <v>-5178198.402400002</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20688,12 +20570,12 @@
         <v>-4896678.306400002</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20727,12 +20609,12 @@
         <v>-4896678.306400002</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20771,9 +20653,7 @@
       <c r="I613" t="n">
         <v>3.36</v>
       </c>
-      <c r="J613" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20812,9 +20692,7 @@
       <c r="I614" t="n">
         <v>3.37</v>
       </c>
-      <c r="J614" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20853,9 +20731,7 @@
       <c r="I615" t="n">
         <v>3.37</v>
       </c>
-      <c r="J615" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20894,9 +20770,7 @@
       <c r="I616" t="n">
         <v>3.38</v>
       </c>
-      <c r="J616" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,9 +20809,7 @@
       <c r="I617" t="n">
         <v>3.38</v>
       </c>
-      <c r="J617" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20976,9 +20848,7 @@
       <c r="I618" t="n">
         <v>3.38</v>
       </c>
-      <c r="J618" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21017,9 +20887,7 @@
       <c r="I619" t="n">
         <v>3.38</v>
       </c>
-      <c r="J619" t="n">
-        <v>3.34</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21053,12 +20921,12 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21092,12 +20960,12 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21131,12 +20999,12 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21170,12 +21038,12 @@
         <v>-4653455.630600002</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21209,12 +21077,12 @@
         <v>-4346201.121600002</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21248,12 +21116,12 @@
         <v>-4052180.042800002</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
         <v>3.34</v>
       </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21287,12 +21155,12 @@
         <v>-4395932.604800002</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21326,12 +21194,12 @@
         <v>-4125585.384800002</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21365,12 +21233,12 @@
         <v>-3826124.280800002</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21404,12 +21272,12 @@
         <v>-4174626.061800002</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21443,12 +21311,12 @@
         <v>-4173595.061800002</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21482,12 +21350,12 @@
         <v>-4190155.061800002</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21521,12 +21389,12 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21560,12 +21428,12 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21599,12 +21467,12 @@
         <v>-3631798.369800002</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21638,12 +21506,12 @@
         <v>-3961180.231800003</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21677,12 +21545,12 @@
         <v>-3620557.061800003</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21716,12 +21584,12 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21755,12 +21623,12 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21794,12 +21662,12 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21833,12 +21701,12 @@
         <v>-3535439.416800003</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21872,12 +21740,12 @@
         <v>-3675701.808800003</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21911,12 +21779,12 @@
         <v>-3430381.349800003</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
         <v>3.34</v>
       </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21950,12 +21818,12 @@
         <v>-3697512.955800003</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21989,19 +21857,19 @@
         <v>-3451991.424800003</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
         <v>3.34</v>
       </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L644" t="n">
-        <v>0.9979940119760479</v>
+        <v>1</v>
       </c>
       <c r="M644" t="inlineStr"/>
     </row>
@@ -22028,11 +21896,17 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22061,11 +21935,17 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22094,11 +21974,17 @@
         <v>-3506514.459800003</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22127,11 +22013,17 @@
         <v>-3257771.413800003</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22160,11 +22052,17 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22193,11 +22091,17 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22226,11 +22130,17 @@
         <v>-3382508.056400003</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22259,11 +22169,17 @@
         <v>-3245807.516100003</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22292,11 +22208,17 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22325,11 +22247,17 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22362,7 +22290,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22391,11 +22323,17 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22428,7 +22366,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22461,7 +22403,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22494,7 +22440,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22523,11 +22473,17 @@
         <v>-3434414.087100003</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22556,11 +22512,17 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22589,11 +22551,15 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22622,11 +22588,15 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22655,11 +22625,15 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22692,7 +22666,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22725,7 +22703,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22758,7 +22740,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22791,7 +22777,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22824,7 +22814,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22857,7 +22851,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22890,7 +22888,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22923,7 +22925,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22956,7 +22962,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22989,7 +22999,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23022,7 +23036,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23055,7 +23073,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23088,7 +23110,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23117,11 +23143,15 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23150,11 +23180,15 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23183,11 +23217,15 @@
         <v>-3133432.860700003</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23220,7 +23258,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23249,11 +23291,15 @@
         <v>-3368497.381700004</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23286,7 +23332,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23319,7 +23369,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23352,7 +23406,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23385,7 +23443,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +23480,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23451,7 +23517,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23484,7 +23554,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23517,7 +23591,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23550,7 +23628,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23583,7 +23665,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23616,7 +23702,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23649,7 +23739,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23682,7 +23776,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23715,7 +23813,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23748,7 +23850,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23781,7 +23887,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23814,7 +23924,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23847,7 +23961,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23880,7 +23998,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23913,7 +24035,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23946,7 +24072,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23979,7 +24109,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24012,7 +24146,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24045,7 +24183,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24078,7 +24220,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24111,7 +24257,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24144,7 +24294,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24177,7 +24331,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24210,7 +24368,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24243,7 +24405,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24276,7 +24442,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24309,7 +24479,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24342,7 +24516,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24375,7 +24553,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24408,7 +24590,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24441,7 +24627,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24474,7 +24664,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24507,7 +24701,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24540,7 +24738,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24573,7 +24775,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24606,7 +24812,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24639,7 +24849,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24672,7 +24886,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24705,7 +24923,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24738,7 +24960,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24771,7 +24997,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24804,7 +25034,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24837,7 +25071,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24870,7 +25108,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24903,7 +25145,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24936,7 +25182,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24969,7 +25219,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25002,7 +25256,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25035,7 +25293,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25068,7 +25330,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25101,7 +25367,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25134,7 +25404,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25167,7 +25441,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25200,7 +25478,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25233,7 +25515,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25266,7 +25552,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25299,7 +25589,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25332,7 +25626,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25365,7 +25663,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25398,7 +25700,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25431,7 +25737,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25464,7 +25774,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25497,7 +25811,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25530,7 +25848,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25563,7 +25885,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25596,7 +25922,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25629,7 +25959,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25662,7 +25996,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25695,7 +26033,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25728,7 +26070,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25761,7 +26107,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25794,7 +26144,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25827,7 +26181,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25860,7 +26218,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25893,7 +26255,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25926,7 +26292,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25959,7 +26329,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25992,7 +26366,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26025,7 +26403,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26058,7 +26440,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26091,7 +26477,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26124,7 +26514,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26157,7 +26551,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26190,7 +26588,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26223,7 +26625,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26256,7 +26662,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26289,7 +26699,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26322,7 +26736,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26355,7 +26773,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26388,7 +26810,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26421,7 +26847,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26454,7 +26884,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26487,7 +26921,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26520,7 +26958,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26553,7 +26995,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26586,7 +27032,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26619,7 +27069,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26652,7 +27106,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26685,7 +27143,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26718,7 +27180,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26751,7 +27217,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26784,7 +27254,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26817,7 +27291,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26850,7 +27328,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26883,7 +27365,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26916,7 +27402,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26949,7 +27439,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26982,7 +27476,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27015,7 +27513,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27048,7 +27550,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27081,7 +27587,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27114,7 +27624,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27147,7 +27661,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27180,7 +27698,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27213,7 +27735,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27246,7 +27772,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27279,7 +27809,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27312,7 +27846,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27345,7 +27883,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27378,7 +27920,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27411,7 +27957,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27444,7 +27994,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27477,7 +28031,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27510,7 +28068,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27543,7 +28105,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27576,7 +28142,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27609,7 +28179,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27642,7 +28216,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27675,7 +28253,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27708,7 +28290,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27741,7 +28327,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27774,7 +28364,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27807,7 +28401,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27840,7 +28438,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27873,7 +28475,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27906,7 +28512,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27939,7 +28549,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27972,7 +28586,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28005,7 +28623,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28038,7 +28660,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28071,7 +28697,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28104,7 +28734,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28137,7 +28771,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28170,7 +28808,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28203,7 +28845,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28236,7 +28882,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28269,7 +28919,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28302,7 +28956,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28335,7 +28993,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28368,7 +29030,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28401,7 +29067,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28434,7 +29104,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28467,7 +29141,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28500,7 +29178,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28533,7 +29215,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28566,7 +29252,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28599,7 +29289,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28632,7 +29326,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28665,7 +29363,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28698,7 +29400,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28731,7 +29437,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28764,7 +29474,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28797,7 +29511,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28830,7 +29548,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28863,7 +29585,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28896,7 +29622,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28929,7 +29659,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28962,7 +29696,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28995,7 +29733,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29028,7 +29770,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29061,7 +29807,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29094,7 +29844,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29127,7 +29881,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29160,7 +29918,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29193,7 +29955,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29226,7 +29992,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29259,7 +30029,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29292,7 +30066,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29325,7 +30103,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29358,7 +30140,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29391,7 +30177,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29424,7 +30214,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29457,7 +30251,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29490,7 +30288,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29523,7 +30325,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29556,7 +30362,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29589,7 +30399,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29622,7 +30436,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29655,7 +30473,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29688,7 +30510,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29721,7 +30547,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29754,7 +30584,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29787,7 +30621,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29820,7 +30658,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29853,7 +30695,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29886,7 +30732,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29919,7 +30769,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29952,7 +30806,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29985,7 +30843,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30018,7 +30880,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30051,7 +30917,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30084,7 +30954,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30117,7 +30991,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30150,7 +31028,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30183,7 +31065,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30216,7 +31102,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30249,7 +31139,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30282,7 +31176,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30315,7 +31213,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30348,7 +31250,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30381,7 +31287,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30414,7 +31324,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30447,7 +31361,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30480,7 +31398,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30513,7 +31435,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30546,7 +31472,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30579,7 +31509,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30612,7 +31546,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30645,7 +31583,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30678,7 +31620,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30707,11 +31653,15 @@
         <v>-4073207.746900002</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30744,7 +31694,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30777,7 +31731,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30810,7 +31768,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30843,7 +31805,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30876,7 +31842,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
